--- a/Open Source task.xlsx
+++ b/Open Source task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legion\Desktop\open-source\Security-Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Security-Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655120EA-671F-4435-B8F2-FC3A0DB523E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DE1A0-EE07-432B-8145-97FA1C8F3454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A782380-5C03-4ABF-949C-B3350E41F3A7}"/>
   </bookViews>
@@ -23,12 +23,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,20 +43,20 @@
     <t>Repo Link</t>
   </si>
   <si>
-    <t>https://github.com/0xkillua/Security-Task.git</t>
+    <t>يوسف محمد حسن</t>
   </si>
   <si>
-    <t>heikalsayed@gmail.com</t>
+    <t>mohamedyoussif540@gmail.com</t>
   </si>
   <si>
-    <t>السيد اسامه رجب السيد</t>
+    <t>https://github.com/youssifhassan1/Security-Task.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,17 +457,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.3984375" customWidth="1"/>
+    <col min="2" max="2" width="49.69921875" customWidth="1"/>
+    <col min="3" max="3" width="51.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,15 +478,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -499,5 +495,6 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{65319477-3938-45F9-8CEB-9746D877D7C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>